--- a/PABMI/ENTREGABLES/Matriz de Pruebas Configuraciones Catálogos   ALTAS BIENES MUEBLES.xlsx
+++ b/PABMI/ENTREGABLES/Matriz de Pruebas Configuraciones Catálogos   ALTAS BIENES MUEBLES.xlsx
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -788,8 +788,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,24 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2575,7 +2575,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3452,7 +3451,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5969,7 +5967,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -6036,7 +6034,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6143,7 +6141,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6499,7 +6497,7 @@
       <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6520,94 +6518,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="31" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -6857,19 +6855,19 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+      <c r="A13" s="27">
         <v>7</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -6885,17 +6883,17 @@
         <v>81</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="M13" s="42"/>
+      <c r="M13" s="23"/>
       <c r="N13" s="1">
         <v>44970</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="3" t="s">
         <v>74</v>
       </c>
@@ -6915,7 +6913,7 @@
       <c r="L14" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="46" t="s">
+      <c r="M14" s="25" t="s">
         <v>92</v>
       </c>
       <c r="N14" s="1">
@@ -6923,18 +6921,18 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="24" t="s">
         <v>87</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -6947,21 +6945,21 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="24" t="s">
         <v>89</v>
       </c>
       <c r="J16" s="2"/>
@@ -6971,11 +6969,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="3" t="s">
         <v>71</v>
       </c>
@@ -6995,18 +6993,18 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G18" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="24" t="s">
         <v>87</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -7019,11 +7017,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="3" t="s">
         <v>72</v>
       </c>
@@ -7043,11 +7041,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="3" t="s">
         <v>70</v>
       </c>
@@ -7067,11 +7065,11 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="3" t="s">
         <v>73</v>
       </c>
@@ -7091,11 +7089,11 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="3" t="s">
         <v>76</v>
       </c>
@@ -7113,11 +7111,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="3" t="s">
         <v>68</v>
       </c>
@@ -7135,11 +7133,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="3" t="s">
         <v>72</v>
       </c>
@@ -7157,11 +7155,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="3" t="s">
         <v>75</v>
       </c>
@@ -7179,19 +7177,19 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
+      <c r="A26" s="28">
         <v>8</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -7211,11 +7209,11 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="43"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="3" t="s">
         <v>68</v>
       </c>
@@ -7233,11 +7231,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="43"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="3" t="s">
         <v>69</v>
       </c>
@@ -7266,16 +7264,6 @@
   </sheetData>
   <autoFilter ref="G1:G18"/>
   <mergeCells count="17">
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E13:E25"/>
-    <mergeCell ref="D13:D25"/>
-    <mergeCell ref="C13:C25"/>
-    <mergeCell ref="B13:B25"/>
-    <mergeCell ref="A13:A25"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:F4"/>
@@ -7283,6 +7271,16 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:N5"/>
+    <mergeCell ref="E13:E25"/>
+    <mergeCell ref="D13:D25"/>
+    <mergeCell ref="C13:C25"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
